--- a/data/账单初始数据.xlsx
+++ b/data/账单初始数据.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xueleixi/Desktop/word-html/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20380" windowHeight="7960"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>用户名</t>
   </si>
@@ -112,27 +122,24 @@
     <t>510781198707255158</t>
   </si>
   <si>
-    <t>2017.11.10</t>
-  </si>
-  <si>
     <t>单季丰</t>
   </si>
   <si>
     <t>0010677</t>
+  </si>
+  <si>
+    <t>2017.10.10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\.m\.d"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="yyyy\.m\.d"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,329 +170,21 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -508,264 +207,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,7 +260,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -833,65 +281,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1166,21 +566,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="19.5" customWidth="1"/>
     <col min="4" max="4" width="13.5" customWidth="1"/>
@@ -1193,7 +593,7 @@
     <col min="11" max="13" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="32" customHeight="1" spans="1:14">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1237,7 +637,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" ht="22" customHeight="1" spans="1:14">
+    <row r="2" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>14</v>
       </c>
@@ -1260,7 +660,7 @@
         <v>19</v>
       </c>
       <c r="H2" s="12">
-        <v>0.102</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="I2" s="18" t="s">
         <v>20</v>
@@ -1271,7 +671,7 @@
       <c r="M2" s="20"/>
       <c r="N2" s="20"/>
     </row>
-    <row r="3" ht="22" customHeight="1" spans="1:14">
+    <row r="3" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>21</v>
       </c>
@@ -1294,7 +694,7 @@
         <v>25</v>
       </c>
       <c r="H3" s="12">
-        <v>0.102</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="I3" s="18" t="s">
         <v>20</v>
@@ -1305,7 +705,7 @@
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
     </row>
-    <row r="4" ht="22" customHeight="1" spans="1:14">
+    <row r="4" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>26</v>
       </c>
@@ -1328,7 +728,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="12">
-        <v>0.102</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="I4" s="18" t="s">
         <v>20</v>
@@ -1339,7 +739,7 @@
       <c r="M4" s="20"/>
       <c r="N4" s="20"/>
     </row>
-    <row r="5" ht="22" customHeight="1" spans="1:14">
+    <row r="5" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>30</v>
       </c>
@@ -1350,16 +750,16 @@
         <v>31</v>
       </c>
       <c r="D5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>33</v>
       </c>
       <c r="F5" s="11">
         <v>50000</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H5" s="16">
         <v>0.06</v>
@@ -1374,11 +774,11 @@
       <c r="N5" s="20"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="G2 G3 G4 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/账单初始数据.xlsx
+++ b/data/账单初始数据.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26311"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xueleixi/Desktop/word-html/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20380" windowHeight="7960"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="2" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="139">
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
   <si>
     <t>用户名</t>
   </si>
@@ -35,21 +39,21 @@
     <t>身份证号</t>
   </si>
   <si>
+    <t>产品名称</t>
+  </si>
+  <si>
+    <t>初始出借金额</t>
+  </si>
+  <si>
+    <t>利润率</t>
+  </si>
+  <si>
     <t>初始出借日期</t>
   </si>
   <si>
-    <t>产品名称</t>
-  </si>
-  <si>
-    <t>初始出借金额</t>
-  </si>
-  <si>
     <t>出借编号</t>
   </si>
   <si>
-    <t>利润率</t>
-  </si>
-  <si>
     <t>公司</t>
   </si>
   <si>
@@ -68,67 +72,380 @@
     <t>报告日期</t>
   </si>
   <si>
-    <t>柏素华</t>
+    <t>409269890@qq.com</t>
+  </si>
+  <si>
+    <t>安学英</t>
   </si>
   <si>
     <t>女士</t>
-  </si>
-  <si>
-    <t>510211194803229027</t>
-  </si>
-  <si>
-    <t>2017.04.05</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>132801197412153429</t>
   </si>
   <si>
     <t>月润通</t>
   </si>
   <si>
-    <t>0010666</t>
+    <t>2017.01.16</t>
+  </si>
+  <si>
+    <t>0008644</t>
   </si>
   <si>
     <t>北京</t>
-  </si>
-  <si>
-    <t>费焕翔</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2951594093@qq.com</t>
+  </si>
+  <si>
+    <t>陈艳</t>
+  </si>
+  <si>
+    <t>女士</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>152823198310164043</t>
+  </si>
+  <si>
+    <t>2017.01.23</t>
+  </si>
+  <si>
+    <t>0008776</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 409269890@qq.com</t>
+  </si>
+  <si>
+    <t>邓华兰</t>
+  </si>
+  <si>
+    <t>110224197107013020</t>
+  </si>
+  <si>
+    <t>年丰盈</t>
+  </si>
+  <si>
+    <t>2017.01.26</t>
+  </si>
+  <si>
+    <t>0008896</t>
+  </si>
+  <si>
+    <t>272769361@qq.com</t>
+  </si>
+  <si>
+    <t>贾昌红</t>
+  </si>
+  <si>
+    <t>211381198811243921</t>
+  </si>
+  <si>
+    <t>2017.01.24</t>
+  </si>
+  <si>
+    <t>0008871</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 272769361@qq.com</t>
+  </si>
+  <si>
+    <t>姜荻</t>
+  </si>
+  <si>
+    <t>110103197206080109</t>
+  </si>
+  <si>
+    <t>2017.01.22</t>
+  </si>
+  <si>
+    <t>0008299</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 769919890@qq.com </t>
+  </si>
+  <si>
+    <t>蒋玲</t>
+  </si>
+  <si>
+    <t>110224197304233022</t>
+  </si>
+  <si>
+    <t>0008648</t>
+  </si>
+  <si>
+    <t>李春凤</t>
+  </si>
+  <si>
+    <t>110224197504093028</t>
+  </si>
+  <si>
+    <t>0008897</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 284513485@qq.com</t>
+  </si>
+  <si>
+    <t>李金环</t>
+  </si>
+  <si>
+    <t>110224196302033049</t>
+  </si>
+  <si>
+    <t>0008660</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 793350523@qq.com</t>
+  </si>
+  <si>
+    <t>李欣儒</t>
+  </si>
+  <si>
+    <t>410521199207266049</t>
+  </si>
+  <si>
+    <t>2017.01.18</t>
+  </si>
+  <si>
+    <t>0008655</t>
+  </si>
+  <si>
+    <t>李志武</t>
   </si>
   <si>
     <t>先生</t>
-  </si>
-  <si>
-    <t>630105199312181337</t>
-  </si>
-  <si>
-    <t>2017.07.07</t>
-  </si>
-  <si>
-    <t>0010674</t>
-  </si>
-  <si>
-    <t>郝恩发</t>
-  </si>
-  <si>
-    <t>51010219420930079x</t>
-  </si>
-  <si>
-    <t>2017.07.13</t>
-  </si>
-  <si>
-    <t>0010675</t>
-  </si>
-  <si>
-    <t>刘文</t>
-  </si>
-  <si>
-    <t>510781198707255158</t>
-  </si>
-  <si>
-    <t>单季丰</t>
-  </si>
-  <si>
-    <t>0010677</t>
-  </si>
-  <si>
-    <t>2017.10.10</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110224196905153031</t>
+  </si>
+  <si>
+    <t>0008657</t>
+  </si>
+  <si>
+    <t>284513485@qq.com</t>
+  </si>
+  <si>
+    <t>刘满新</t>
+  </si>
+  <si>
+    <t>110224195102183021</t>
+  </si>
+  <si>
+    <t>0008646</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2418513876@qq.com</t>
+  </si>
+  <si>
+    <t>刘卫萍</t>
+  </si>
+  <si>
+    <t>130638197802051524</t>
+  </si>
+  <si>
+    <t>0008773</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 769919890@qq.com</t>
+  </si>
+  <si>
+    <t>刘于峰</t>
+  </si>
+  <si>
+    <t>372923197709263512</t>
+  </si>
+  <si>
+    <t>0008647</t>
+  </si>
+  <si>
+    <t>满建革</t>
+  </si>
+  <si>
+    <t>110226197908035046</t>
+  </si>
+  <si>
+    <t>0008782</t>
+  </si>
+  <si>
+    <t>932726723@qq.com</t>
+  </si>
+  <si>
+    <t>任逢津</t>
+  </si>
+  <si>
+    <t>110104196805313519</t>
+  </si>
+  <si>
+    <t>0008649</t>
+  </si>
+  <si>
+    <t>932726722@qq.com</t>
+  </si>
+  <si>
+    <t>宋杰萍</t>
+  </si>
+  <si>
+    <t>110228197506242926</t>
+  </si>
+  <si>
+    <t>2017.01.17</t>
+  </si>
+  <si>
+    <t>0008654</t>
+  </si>
+  <si>
+    <t>宋启杰</t>
+  </si>
+  <si>
+    <t>230711197705020426</t>
+  </si>
+  <si>
+    <t>0008774</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 284513489@qq.com</t>
+  </si>
+  <si>
+    <t>孙凤举</t>
+  </si>
+  <si>
+    <t>110224196711194417</t>
+  </si>
+  <si>
+    <t>0008779</t>
+  </si>
+  <si>
+    <t>田建国</t>
+  </si>
+  <si>
+    <t>110224195507233015</t>
+  </si>
+  <si>
+    <t>0008901</t>
+  </si>
+  <si>
+    <t>王继兰</t>
+  </si>
+  <si>
+    <t>110106195906232767</t>
+  </si>
+  <si>
+    <t>0008777</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 292566507@qq.com</t>
+  </si>
+  <si>
+    <t>王立平</t>
+  </si>
+  <si>
+    <t>110108194602186368</t>
+  </si>
+  <si>
+    <t>2017.01.30</t>
+  </si>
+  <si>
+    <t>0008868</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 292566507@qq.c0m</t>
+  </si>
+  <si>
+    <t>0008781</t>
+  </si>
+  <si>
+    <t>王献忠</t>
+  </si>
+  <si>
+    <t>110224197707043012</t>
+  </si>
+  <si>
+    <t>0008658</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 754036360@qq.com</t>
+  </si>
+  <si>
+    <t>王秀华</t>
+  </si>
+  <si>
+    <t>110224196505293045</t>
+  </si>
+  <si>
+    <t>0008645</t>
+  </si>
+  <si>
+    <t>杨明珠</t>
+  </si>
+  <si>
+    <t>131081199208052563</t>
+  </si>
+  <si>
+    <t>2017.01.25</t>
+  </si>
+  <si>
+    <t>0008869</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1326463890@qq,com</t>
+  </si>
+  <si>
+    <t>杨维良</t>
+  </si>
+  <si>
+    <t>132826195312140012</t>
+  </si>
+  <si>
+    <t>0008642</t>
+  </si>
+  <si>
+    <t>0008778</t>
+  </si>
+  <si>
+    <t>张大凤</t>
+  </si>
+  <si>
+    <t>11022419641208244x</t>
+  </si>
+  <si>
+    <t>0008775</t>
+  </si>
+  <si>
+    <t>张景</t>
+  </si>
+  <si>
+    <t>110224197706103028</t>
+  </si>
+  <si>
+    <t>0008641</t>
+  </si>
+  <si>
+    <t>张松奇</t>
+  </si>
+  <si>
+    <t>110224194610202415</t>
+  </si>
+  <si>
+    <t>0008898</t>
+  </si>
+  <si>
+    <t>郑秀华</t>
+  </si>
+  <si>
+    <t>110106193910164227</t>
+  </si>
+  <si>
+    <t>0008873</t>
+  </si>
+  <si>
+    <t>0008872</t>
+  </si>
+  <si>
+    <t>100,000.00</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -136,14 +453,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy\.m\.d"/>
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="177" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -152,36 +479,57 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -209,83 +557,70 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -305,7 +640,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -357,7 +692,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -392,7 +727,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -567,218 +902,1375 @@
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.5" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="4" width="13.5" customWidth="1"/>
-    <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="7.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="5.5" customWidth="1"/>
-    <col min="10" max="10" width="15.5" customWidth="1"/>
-    <col min="11" max="13" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="O1" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P1" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="11">
-        <v>250000</v>
-      </c>
-      <c r="G2" s="22" t="s">
+      <c r="E2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="12">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="I2" s="18" t="s">
+      <c r="F2" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G2" s="13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H2" s="14">
+        <v>0.108</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-    </row>
-    <row r="3" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+    </row>
+    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="12">
         <v>50000</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H3" s="14">
+        <v>0.108</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+    </row>
+    <row r="4" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="12">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="I3" s="18" t="s">
+      <c r="D4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+    </row>
+    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H5" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+    </row>
+    <row r="6" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="12">
+        <v>50000</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="12">
+        <v>80000</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="12">
+        <v>500000</v>
+      </c>
+      <c r="G9" s="13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.108</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="12">
+        <v>50000</v>
+      </c>
+      <c r="G10" s="13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0.108</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+    </row>
+    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G12" s="13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0.108</v>
+      </c>
+      <c r="I12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-    </row>
-    <row r="4" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="J12" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+    </row>
+    <row r="13" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+    </row>
+    <row r="14" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+    </row>
+    <row r="15" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="12">
+        <v>300000</v>
+      </c>
+      <c r="G15" s="13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0.108</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+    </row>
+    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="12">
+        <v>50000</v>
+      </c>
+      <c r="G16" s="13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H16" s="14">
+        <v>0.108</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+    </row>
+    <row r="17" spans="1:16" ht="30" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H17" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+    </row>
+    <row r="18" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="12">
+        <v>400000</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+    </row>
+    <row r="19" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="12">
+        <v>70000</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H19" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+    </row>
+    <row r="20" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="12">
+        <v>50000</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+    </row>
+    <row r="21" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="12">
+        <v>70000</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+    </row>
+    <row r="22" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="12">
+        <v>880000</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H22" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+    </row>
+    <row r="23" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A23" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="12">
+        <v>120000</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H23" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+    </row>
+    <row r="24" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="12">
+        <v>2000000</v>
+      </c>
+      <c r="G24" s="13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H24" s="14">
+        <v>0.108</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+    </row>
+    <row r="25" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A25" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="12">
+        <v>200000</v>
+      </c>
+      <c r="G25" s="13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H25" s="14">
+        <v>0.108</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+    </row>
+    <row r="26" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="12">
+        <v>50000</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H26" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+    </row>
+    <row r="27" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A27" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="12">
+        <v>50000</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H27" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="11">
-        <v>200000</v>
-      </c>
-      <c r="G4" s="22" t="s">
+      <c r="J27" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+    </row>
+    <row r="28" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A28" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="12">
+        <v>50000</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H28" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+    </row>
+    <row r="29" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A29" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="12">
+        <v>60000</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H29" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+    </row>
+    <row r="30" spans="1:16" ht="30" x14ac:dyDescent="0.15">
+      <c r="A30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="12">
+        <v>100000</v>
+      </c>
+      <c r="G30" s="13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H30" s="14">
+        <v>0.108</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+    </row>
+    <row r="31" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A31" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="12">
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-    </row>
-    <row r="5" spans="1:14" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="B31" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="12">
+        <v>70000</v>
+      </c>
+      <c r="G31" s="13">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="H31" s="14">
+        <v>0.108</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+    </row>
+    <row r="32" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="11">
-        <v>50000</v>
-      </c>
-      <c r="G5" s="13" t="s">
+      <c r="F32" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H32" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I32" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="16">
-        <v>0.06</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="J32" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+    </row>
+    <row r="33" spans="1:16" ht="45" x14ac:dyDescent="0.15">
+      <c r="A33" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0.12</v>
+      </c>
+      <c r="H33" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="G2 G3 G4 G5">
+  <conditionalFormatting sqref="J16:J33 J8:J14 J2:J6">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>